--- a/biology/Zoologie/Gehyra_koira/Gehyra_koira.xlsx
+++ b/biology/Zoologie/Gehyra_koira/Gehyra_koira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gehyra koira est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gehyra koira est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le nord-est de l'Australie-Occidentale et au Territoire du Nord.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le nord-est de l'Australie-Occidentale et au Territoire du Nord.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko insectivore, nocturne et arboricole. Il mesure jusqu'à 96 mm sans la queue, c'est le  plus grand des Gehyra australiens.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 septembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 septembre 2012) :
 Gehyra koira ipsa Horner, 2005
 Gehyra koira koira Horner, 2005</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom spécifique koira vient du grec koira signifiant « roi », en référence à Max King, King signifiant roi en anglais, pour ses études sur les espèces du genre Gehyra.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Horner, 2005 : Gehyra koira sp. nov. (Reptilia: Gekkonidae), a new species of lizard with two allopatric subspecies from the Ord-Victoria region of north-western Australia and a key to the Gehyra australis species complex. The Beagle, vol. 21, p. 165-174 (texte intégral).</t>
         </is>
